--- a/pim/src/Pcmt/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/6_family_variants.xlsx
+++ b/pim/src/Pcmt/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/6_family_variants.xlsx
@@ -51,7 +51,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="0" t="inlineStr">
         <is>
           <t>code</t>
@@ -74,11 +74,21 @@
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
+          <t>variant-axes_2</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
           <t>variant-attributes_1</t>
         </is>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>variant-attributes_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>VARIANT_RH</t>
@@ -99,13 +109,13 @@
           <t>SOURCE_OF_DATA,SOURCEITEMID,LABELING</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="F2" s="0" t="inlineStr">
         <is>
           <t>sku,MANU_SHORT,BRAND_NAME,BRAND_OWNER_NAME,BRAND_OWNER_LOCATION,BRAND_OWNER_GLN,MANUFACTURER_LOCATION,MANUFACTURER_GLN,MANUFACTURER_PART_NUM,COUNTRY_OF_ORIGIN,ITEM_DESCRIPTION,SHELF_LIFE_DAYS,STORAGE_INSTRUCTIONS,TRADE_ITEM_UNIT_DESCRIPTOR,NET_CONTENT,NET_CONTENT_UOM,GTIN_UNIT_LEVEL,SOURCE_OF_DATA,MANUFACTURER_NAME,SOURCEITEMID,LABELING,MAX_TEMPERATURE_MEASURE,MIN_TEMPERATURE_MEASURE,GROSS_WEIGHT_MEASURE,HEIGHT_MEASURE,WIDTH_MEASURE,VOLUME_MEASURE</t>
         </is>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="0" t="inlineStr">
         <is>
           <t>VARIANT_RH_WITHUOMDESCRIPTOR</t>
@@ -126,13 +136,13 @@
           <t>TRADE_ITEM_UNIT_DESCRIPTOR,SOURCE_OF_DATA,SOURCEITEMID,LABELING</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>sku,MANU_SHORT,BRAND_NAME,BRAND_OWNER_NAME,BRAND_OWNER_LOCATION,BRAND_OWNER_GLN,MANUFACTURER_LOCATION,MANUFACTURER_GLN,MANUFACTURER_PART_NUM,COUNTRY_OF_ORIGIN,ITEM_DESCRIPTION,SHELF_LIFE_DAYS,STORAGE_INSTRUCTIONS,TRADE_ITEM_UNIT_DESCRIPTOR,NET_CONTENT,NET_CONTENT_UOM,GTIN_UNIT_LEVEL,SOURCE_OF_DATA,MANUFACTURER_NAME,SOURCEITEMID,LABELING,MAX_TEMPERATURE_MEASURE,MIN_TEMPERATURE_MEASURE,GROSS_WEIGHT_MEASURE,HEIGHT_MEASURE,WIDTH_MEASURE,VOLUME_MEASURE</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="0" t="inlineStr">
         <is>
           <t>VARIANT_RH_MANUF</t>
@@ -153,9 +163,46 @@
           <t>MANUFACTURER_NAME,SOURCEITEMID,LABELING</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>sku,MANU_SHORT,BRAND_NAME,BRAND_OWNER_NAME,BRAND_OWNER_LOCATION,BRAND_OWNER_GLN,MANUFACTURER_LOCATION,MANUFACTURER_GLN,MANUFACTURER_PART_NUM,COUNTRY_OF_ORIGIN,ITEM_DESCRIPTION,SHELF_LIFE_DAYS,STORAGE_INSTRUCTIONS,TRADE_ITEM_UNIT_DESCRIPTOR,NET_CONTENT,NET_CONTENT_UOM,STRENGTH,GTIN_UNIT_LEVEL,SOURCE_OF_DATA,MANUFACTURER_NAME,SOURCEITEMID,LABELING,MAX_TEMPERATURE_MEASURE,MIN_TEMPERATURE_MEASURE,GROSS_WEIGHT_MEASURE,HEIGHT_MEASURE,WIDTH_MEASURE,VOLUME_MEASURE,DEPTH_MEASURE,GTIN,COUNTRY_REGULATORY_CODE</t>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>sku,MANU_SHORT,BRAND_NAME,BRAND_OWNER_NAME,BRAND_OWNER_LOCATION,BRAND_OWNER_GLN,MANUFACTURER_LOCATION,MANUFACTURER_GLN,MANUFACTURER_PART_NUM,COUNTRY_OF_ORIGIN,ITEM_DESCRIPTION,SHELF_LIFE_DAYS,STORAGE_INSTRUCTIONS,TRADE_ITEM_UNIT_DESCRIPTOR,NET_CONTENT,NET_CONTENT_UOM,STRENGTH,GTIN_UNIT_LEVEL,SOURCE_OF_DATA,MANUFACTURER_NAME,SOURCEITEMID,LABELING,MAX_TEMPERATURE_MEASURE,MIN_TEMPERATURE_MEASURE,GROSS_WEIGHT_MEASURE,HEIGHT_MEASURE,WIDTH_MEASURE,VOLUME_MEASURE,DEPTH_MEASURE,GTIN,COUNTRY_REGULATORY_CODE,GTIN_PALLET_LEVEL,GTIN_CASE_LEVEL,GTIN_INNERPACK_LEVEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>RH_PRODUCTS_TRADEITEMS_VARIANTS</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>MANUFACTURER_NAME,LABELING</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>NET_CONTENT_UOM</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>MANUFACTURER_NAME,LABELING</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>sku,NET_CONTENT_UOM</t>
         </is>
       </c>
     </row>
